--- a/fooods.xlsx
+++ b/fooods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJNARA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJNARA\Desktop\fooods_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
-  <si>
-    <t>Macro - Nutrients</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>Proteins</t>
   </si>
@@ -362,9 +356,6 @@
     <t>Egg</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <r>
       <t>9.0 g(</t>
     </r>
@@ -1335,6 +1326,12 @@
   </si>
   <si>
     <t>21.9 g(38.1%)</t>
+  </si>
+  <si>
+    <t>Foods</t>
+  </si>
+  <si>
+    <t>Quant</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1381,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1409,12 +1406,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1428,7 +1419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1438,9 +1429,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1728,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1744,357 +1732,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="8" t="s">
-        <v>49</v>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>90</v>
@@ -2106,66 +2102,44 @@
         <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>106</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <headerFooter>

--- a/fooods.xlsx
+++ b/fooods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
   <si>
     <t>Proteins</t>
   </si>
@@ -1332,13 +1332,37 @@
   </si>
   <si>
     <t>Quant</t>
+  </si>
+  <si>
+    <t>roti.png (501×498) (raw.githubusercontent.com)</t>
+  </si>
+  <si>
+    <t>Img</t>
+  </si>
+  <si>
+    <t>rice.png (499×499) (raw.githubusercontent.com)</t>
+  </si>
+  <si>
+    <t>brrice.png (494×505) (raw.githubusercontent.com)</t>
+  </si>
+  <si>
+    <t>mutton.png (494×505) (raw.githubusercontent.com)</t>
+  </si>
+  <si>
+    <t>chicken.png (494×505) (raw.githubusercontent.com)</t>
+  </si>
+  <si>
+    <t>idili.png (494×505) (raw.githubusercontent.com)</t>
+  </si>
+  <si>
+    <t>dosa.png (494×505) (raw.githubusercontent.com)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1380,6 +1404,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1416,10 +1448,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1436,8 +1469,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1716,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1731,7 +1766,7 @@
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>105</v>
       </c>
@@ -1747,8 +1782,11 @@
       <c r="E1" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1802,11 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1781,8 +1822,11 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1798,8 +1842,11 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1815,8 +1862,11 @@
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1832,8 +1882,11 @@
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1849,8 +1902,11 @@
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1866,8 +1922,11 @@
       <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1884,7 +1943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -1901,7 +1960,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1918,7 +1977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1935,7 +1994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -1952,7 +2011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
@@ -1969,7 +2028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
@@ -1986,7 +2045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
@@ -2140,8 +2199,17 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://raw.githubusercontent.com/hvijay31/Diet/main/roti.png"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://raw.githubusercontent.com/hvijay31/Diet/main/rice.png"/>
+    <hyperlink ref="F2" r:id="rId3" display="https://raw.githubusercontent.com/hvijay31/Diet/main/brrice.png"/>
+    <hyperlink ref="F6" r:id="rId4" display="https://raw.githubusercontent.com/hvijay31/Diet/main/mutton.png"/>
+    <hyperlink ref="F7" r:id="rId5" display="https://raw.githubusercontent.com/hvijay31/Diet/main/chicken.png"/>
+    <hyperlink ref="F5" r:id="rId6" display="https://raw.githubusercontent.com/hvijay31/Diet/main/idili.png"/>
+    <hyperlink ref="F8" r:id="rId7" display="https://raw.githubusercontent.com/hvijay31/Diet/main/dosa.png"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId8"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"CorpoS"&amp;10&amp;K000000Internal&amp;1#</oddHeader>
   </headerFooter>

--- a/fooods.xlsx
+++ b/fooods.xlsx
@@ -1334,28 +1334,28 @@
     <t>Quant</t>
   </si>
   <si>
-    <t>roti.png (501×498) (raw.githubusercontent.com)</t>
-  </si>
-  <si>
     <t>Img</t>
   </si>
   <si>
-    <t>rice.png (499×499) (raw.githubusercontent.com)</t>
-  </si>
-  <si>
-    <t>brrice.png (494×505) (raw.githubusercontent.com)</t>
-  </si>
-  <si>
-    <t>mutton.png (494×505) (raw.githubusercontent.com)</t>
-  </si>
-  <si>
-    <t>chicken.png (494×505) (raw.githubusercontent.com)</t>
-  </si>
-  <si>
-    <t>idili.png (494×505) (raw.githubusercontent.com)</t>
-  </si>
-  <si>
-    <t>dosa.png (494×505) (raw.githubusercontent.com)</t>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/brrice.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/rice.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/roti.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/idili.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/mutton.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/chicken.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/dosa.png</t>
   </si>
 </sst>
 </file>
@@ -1764,6 +1764,7 @@
     <col min="3" max="3" width="17.26953125" customWidth="1"/>
     <col min="4" max="4" width="16.453125" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1783,7 +1784,7 @@
         <v>106</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1803,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1843,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1863,7 +1864,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1883,7 +1884,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1903,7 +1904,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2199,17 +2200,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="https://raw.githubusercontent.com/hvijay31/Diet/main/roti.png"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://raw.githubusercontent.com/hvijay31/Diet/main/rice.png"/>
-    <hyperlink ref="F2" r:id="rId3" display="https://raw.githubusercontent.com/hvijay31/Diet/main/brrice.png"/>
-    <hyperlink ref="F6" r:id="rId4" display="https://raw.githubusercontent.com/hvijay31/Diet/main/mutton.png"/>
-    <hyperlink ref="F7" r:id="rId5" display="https://raw.githubusercontent.com/hvijay31/Diet/main/chicken.png"/>
-    <hyperlink ref="F5" r:id="rId6" display="https://raw.githubusercontent.com/hvijay31/Diet/main/idili.png"/>
-    <hyperlink ref="F8" r:id="rId7" display="https://raw.githubusercontent.com/hvijay31/Diet/main/dosa.png"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"CorpoS"&amp;10&amp;K000000Internal&amp;1#</oddHeader>
   </headerFooter>

--- a/fooods.xlsx
+++ b/fooods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="139">
   <si>
     <t>Proteins</t>
   </si>
@@ -1356,13 +1356,85 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/hvijay31/Diet/main/dosa.png</t>
+  </si>
+  <si>
+    <t>colour code</t>
+  </si>
+  <si>
+    <t>#fddecf</t>
+  </si>
+  <si>
+    <t>#FDDECF</t>
+  </si>
+  <si>
+    <t>#384f57</t>
+  </si>
+  <si>
+    <t>#ec8f6e</t>
+  </si>
+  <si>
+    <t>#474f67</t>
+  </si>
+  <si>
+    <t>#f4ddd2</t>
+  </si>
+  <si>
+    <t>#696d79</t>
+  </si>
+  <si>
+    <t>#989cb4</t>
+  </si>
+  <si>
+    <t>#c6c9c5</t>
+  </si>
+  <si>
+    <t>#d2d5f4</t>
+  </si>
+  <si>
+    <t>#d2e9f4</t>
+  </si>
+  <si>
+    <t>#ab9b93</t>
+  </si>
+  <si>
+    <t>#a78879</t>
+  </si>
+  <si>
+    <t>#7e82be</t>
+  </si>
+  <si>
+    <t>#dadbec</t>
+  </si>
+  <si>
+    <t>#c395e5</t>
+  </si>
+  <si>
+    <t>#c45e9e</t>
+  </si>
+  <si>
+    <t>#fbf0f7</t>
+  </si>
+  <si>
+    <t>#572a46</t>
+  </si>
+  <si>
+    <t>#ffffff</t>
+  </si>
+  <si>
+    <t>#d2bf56</t>
+  </si>
+  <si>
+    <t>#e9dfab</t>
+  </si>
+  <si>
+    <t>#4dbd5e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1412,6 +1484,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1452,7 +1536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1470,6 +1554,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1751,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1767,7 +1857,7 @@
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>105</v>
       </c>
@@ -1786,8 +1876,11 @@
       <c r="F1" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1806,8 +1899,11 @@
       <c r="F2" s="8" t="s">
         <v>108</v>
       </c>
+      <c r="G2" s="9" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1826,8 +1922,11 @@
       <c r="F3" s="8" t="s">
         <v>109</v>
       </c>
+      <c r="G3" s="10" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1846,8 +1945,11 @@
       <c r="F4" s="8" t="s">
         <v>110</v>
       </c>
+      <c r="G4" s="10" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1866,8 +1968,11 @@
       <c r="F5" s="8" t="s">
         <v>111</v>
       </c>
+      <c r="G5" s="10" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1886,8 +1991,11 @@
       <c r="F6" s="8" t="s">
         <v>112</v>
       </c>
+      <c r="G6" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1906,8 +2014,11 @@
       <c r="F7" s="8" t="s">
         <v>113</v>
       </c>
+      <c r="G7" s="9" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1926,8 +2037,11 @@
       <c r="F8" s="8" t="s">
         <v>114</v>
       </c>
+      <c r="G8" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1943,8 +2057,11 @@
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G9" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -1960,8 +2077,11 @@
       <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1977,8 +2097,11 @@
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G11" s="9" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1994,8 +2117,11 @@
       <c r="E12" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -2011,8 +2137,11 @@
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
@@ -2028,8 +2157,11 @@
       <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G14" s="9" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
@@ -2045,8 +2177,11 @@
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
@@ -2062,8 +2197,11 @@
       <c r="E16" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="G16" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -2079,8 +2217,11 @@
       <c r="E17" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
@@ -2096,8 +2237,11 @@
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G18" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -2113,8 +2257,11 @@
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G19" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -2130,8 +2277,11 @@
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G20" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>86</v>
       </c>
@@ -2147,8 +2297,11 @@
       <c r="E21" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G21" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
@@ -2164,8 +2317,11 @@
       <c r="E22" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G22" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -2181,8 +2337,11 @@
       <c r="E23" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="G23" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
@@ -2197,6 +2356,9 @@
       </c>
       <c r="E24" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/fooods.xlsx
+++ b/fooods.xlsx
@@ -1358,9 +1358,6 @@
     <t>https://raw.githubusercontent.com/hvijay31/Diet/main/dosa.png</t>
   </si>
   <si>
-    <t>colour code</t>
-  </si>
-  <si>
     <t>#fddecf</t>
   </si>
   <si>
@@ -1428,6 +1425,9 @@
   </si>
   <si>
     <t>#4dbd5e</t>
+  </si>
+  <si>
+    <t>cd</t>
   </si>
 </sst>
 </file>
@@ -1843,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1855,6 +1855,7 @@
     <col min="4" max="4" width="16.453125" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1877,7 +1878,7 @@
         <v>107</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1900,7 +1901,7 @@
         <v>108</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1923,7 +1924,7 @@
         <v>109</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1946,7 +1947,7 @@
         <v>110</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1969,7 +1970,7 @@
         <v>111</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1992,7 +1993,7 @@
         <v>112</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -2015,7 +2016,7 @@
         <v>113</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -2038,7 +2039,7 @@
         <v>114</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2058,7 +2059,7 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2078,7 +2079,7 @@
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2098,7 +2099,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2118,7 +2119,7 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -2138,7 +2139,7 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -2158,7 +2159,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -2178,7 +2179,7 @@
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -2198,7 +2199,7 @@
         <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2218,7 +2219,7 @@
         <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -2238,7 +2239,7 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -2258,7 +2259,7 @@
         <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -2278,7 +2279,7 @@
         <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -2298,7 +2299,7 @@
         <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2318,7 +2319,7 @@
         <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -2338,7 +2339,7 @@
         <v>98</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2358,7 +2359,7 @@
         <v>103</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/fooods.xlsx
+++ b/fooods.xlsx
@@ -1844,7 +1844,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2058,7 +2058,7 @@
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="9" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
       <c r="E12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="9" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       <c r="E16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="9" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       <c r="E17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="9" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="9" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="9" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="9" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2298,7 +2298,7 @@
       <c r="E21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="9" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       <c r="E22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="9" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       <c r="E23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="9" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2358,7 +2358,7 @@
       <c r="E24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="9" t="s">
         <v>130</v>
       </c>
     </row>

--- a/fooods.xlsx
+++ b/fooods.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJNARA\Desktop\fooods_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJNARA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15490" windowHeight="8060"/>
   </bookViews>
   <sheets>
     <sheet name="fooods" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="140">
   <si>
     <t>Proteins</t>
   </si>
@@ -1364,77 +1364,80 @@
     <t>#FDDECF</t>
   </si>
   <si>
-    <t>#384f57</t>
-  </si>
-  <si>
-    <t>#ec8f6e</t>
-  </si>
-  <si>
-    <t>#474f67</t>
-  </si>
-  <si>
-    <t>#f4ddd2</t>
-  </si>
-  <si>
-    <t>#696d79</t>
-  </si>
-  <si>
-    <t>#989cb4</t>
-  </si>
-  <si>
-    <t>#c6c9c5</t>
-  </si>
-  <si>
-    <t>#d2d5f4</t>
-  </si>
-  <si>
-    <t>#d2e9f4</t>
-  </si>
-  <si>
-    <t>#ab9b93</t>
-  </si>
-  <si>
-    <t>#a78879</t>
-  </si>
-  <si>
-    <t>#7e82be</t>
-  </si>
-  <si>
-    <t>#dadbec</t>
-  </si>
-  <si>
-    <t>#c395e5</t>
-  </si>
-  <si>
-    <t>#c45e9e</t>
-  </si>
-  <si>
-    <t>#fbf0f7</t>
-  </si>
-  <si>
-    <t>#572a46</t>
-  </si>
-  <si>
-    <t>#ffffff</t>
-  </si>
-  <si>
-    <t>#d2bf56</t>
-  </si>
-  <si>
-    <t>#e9dfab</t>
-  </si>
-  <si>
-    <t>#4dbd5e</t>
-  </si>
-  <si>
     <t>cd</t>
+  </si>
+  <si>
+    <t>#FFC0CB</t>
+  </si>
+  <si>
+    <t>#FFA07A</t>
+  </si>
+  <si>
+    <t>#FAFAD2</t>
+  </si>
+  <si>
+    <t>#E6E6FA</t>
+  </si>
+  <si>
+    <t>#E0FFFF</t>
+  </si>
+  <si>
+    <t>#F5DEB3</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/apple.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/egg.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/banana.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/milk.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/choco.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/oats.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/fish.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/ladoo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/dalmakhni.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/curd.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/panneer.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/mushroom.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/greenpea.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/noodles.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/pizzaa.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/hvijay31/Diet/main/burger.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1485,16 +1488,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF3F3844"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1536,7 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1554,12 +1552,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1841,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1878,7 +1871,7 @@
         <v>107</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1923,7 +1916,7 @@
       <c r="F3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1946,8 +1939,8 @@
       <c r="F4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>117</v>
+      <c r="G4" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1969,7 +1962,7 @@
       <c r="F5" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2016,7 +2009,7 @@
         <v>113</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -2039,7 +2032,7 @@
         <v>114</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2058,8 +2051,11 @@
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F9" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="G9" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2078,8 +2074,11 @@
       <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
       <c r="G10" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2098,8 +2097,11 @@
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
       <c r="G11" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2118,8 +2120,11 @@
       <c r="E12" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
       <c r="G12" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -2138,8 +2143,11 @@
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
       <c r="G13" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -2158,6 +2166,9 @@
       <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
       <c r="G14" s="9" t="s">
         <v>123</v>
       </c>
@@ -2178,8 +2189,11 @@
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
       <c r="G15" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -2198,8 +2212,11 @@
       <c r="E16" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
       <c r="G16" s="9" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2218,8 +2235,11 @@
       <c r="E17" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
       <c r="G17" s="9" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -2238,8 +2258,11 @@
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
       <c r="G18" s="9" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -2258,8 +2281,11 @@
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
       <c r="G19" s="9" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -2278,8 +2304,11 @@
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
       <c r="G20" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -2298,8 +2327,11 @@
       <c r="E21" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F21" t="s">
+        <v>136</v>
+      </c>
       <c r="G21" s="9" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2318,8 +2350,11 @@
       <c r="E22" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
       <c r="G22" s="9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -2338,8 +2373,11 @@
       <c r="E23" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="F23" t="s">
+        <v>138</v>
+      </c>
       <c r="G23" s="9" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2358,9 +2396,27 @@
       <c r="E24" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
       <c r="G24" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fooods.xlsx
+++ b/fooods.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15490" windowHeight="8060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="fooods" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
   <si>
     <t>Proteins</t>
   </si>
@@ -1431,6 +1431,15 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/hvijay31/Diet/main/burger.png</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>fv</t>
   </si>
 </sst>
 </file>
@@ -1834,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1851,7 +1860,7 @@
     <col min="7" max="7" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>105</v>
       </c>
@@ -1873,8 +1882,17 @@
       <c r="G1" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,8 +1914,17 @@
       <c r="G2" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1919,8 +1946,17 @@
       <c r="G3" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1942,8 +1978,17 @@
       <c r="G4" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1965,8 +2010,17 @@
       <c r="G5" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1988,8 +2042,17 @@
       <c r="G6" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2011,8 +2074,17 @@
       <c r="G7" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2034,8 +2106,17 @@
       <c r="G8" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -2057,8 +2138,17 @@
       <c r="G9" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>1.7</v>
+      </c>
+      <c r="I9">
+        <v>95.6</v>
+      </c>
+      <c r="J9">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -2080,8 +2170,17 @@
       <c r="G10" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I10">
+        <v>92.8</v>
+      </c>
+      <c r="J10">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -2103,8 +2202,17 @@
       <c r="G11" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>35.5</v>
+      </c>
+      <c r="I11">
+        <v>2.7</v>
+      </c>
+      <c r="J11">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -2126,8 +2234,17 @@
       <c r="G12" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>21.8</v>
+      </c>
+      <c r="I12">
+        <v>29.1</v>
+      </c>
+      <c r="J12">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -2149,8 +2266,17 @@
       <c r="G13" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I13">
+        <v>47.1</v>
+      </c>
+      <c r="J13">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
@@ -2172,8 +2298,17 @@
       <c r="G14" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="J14">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
@@ -2195,8 +2330,17 @@
       <c r="G15" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>14.3</v>
+      </c>
+      <c r="I15">
+        <v>32.1</v>
+      </c>
+      <c r="J15">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
@@ -2218,8 +2362,17 @@
       <c r="G16" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>7.4</v>
+      </c>
+      <c r="I16">
+        <v>51.4</v>
+      </c>
+      <c r="J16">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -2241,8 +2394,17 @@
       <c r="G17" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>11.3</v>
+      </c>
+      <c r="I17">
+        <v>38.1</v>
+      </c>
+      <c r="J17">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
@@ -2264,8 +2426,17 @@
       <c r="G18" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>23.2</v>
+      </c>
+      <c r="I18">
+        <v>31.9</v>
+      </c>
+      <c r="J18">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -2287,8 +2458,17 @@
       <c r="G19" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>15.6</v>
+      </c>
+      <c r="I19">
+        <v>6.8</v>
+      </c>
+      <c r="J19">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -2310,8 +2490,17 @@
       <c r="G20" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I20">
+        <v>65.7</v>
+      </c>
+      <c r="J20">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>86</v>
       </c>
@@ -2333,8 +2522,17 @@
       <c r="G21" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>31.1</v>
+      </c>
+      <c r="J21">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
@@ -2356,8 +2554,17 @@
       <c r="G22" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I22">
+        <v>58.3</v>
+      </c>
+      <c r="J22">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -2379,8 +2586,17 @@
       <c r="G23" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>19.2</v>
+      </c>
+      <c r="I23">
+        <v>44.8</v>
+      </c>
+      <c r="J23">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
@@ -2402,20 +2618,29 @@
       <c r="G24" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>24.2</v>
+      </c>
+      <c r="I24">
+        <v>20.9</v>
+      </c>
+      <c r="J24">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G29" s="9"/>
     </row>
   </sheetData>

--- a/fooods.xlsx
+++ b/fooods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
   <si>
     <t>Proteins</t>
   </si>
@@ -1440,6 +1440,18 @@
   </si>
   <si>
     <t>fv</t>
+  </si>
+  <si>
+    <t> 5</t>
+  </si>
+  <si>
+    <t> 4</t>
+  </si>
+  <si>
+    <t> 48</t>
+  </si>
+  <si>
+    <t> 0</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1562,6 +1574,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1843,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1860,7 +1875,7 @@
     <col min="7" max="7" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>105</v>
       </c>
@@ -1892,7 +1907,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,16 +1930,17 @@
         <v>115</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1946,17 +1962,18 @@
       <c r="G3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>21</v>
+      <c r="H3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="12">
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1978,17 +1995,18 @@
       <c r="G4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="12">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -2011,16 +2029,17 @@
         <v>118</v>
       </c>
       <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="12">
         <v>19</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -2043,16 +2062,17 @@
         <v>119</v>
       </c>
       <c r="H6">
-        <v>14</v>
-      </c>
-      <c r="I6">
+        <v>33</v>
+      </c>
+      <c r="I6" s="12">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2075,16 +2095,17 @@
         <v>119</v>
       </c>
       <c r="H7">
-        <v>18</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="J7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2107,16 +2128,17 @@
         <v>120</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="12">
+        <v>27</v>
+      </c>
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="I8">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -2139,16 +2161,17 @@
         <v>120</v>
       </c>
       <c r="H9">
-        <v>1.7</v>
-      </c>
-      <c r="I9">
-        <v>95.6</v>
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="12">
+        <v>10.6</v>
       </c>
       <c r="J9">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -2171,16 +2194,17 @@
         <v>121</v>
       </c>
       <c r="H10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I10">
-        <v>92.8</v>
+        <v>1.3</v>
+      </c>
+      <c r="I10" s="12">
+        <v>23.9</v>
       </c>
       <c r="J10">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -2203,16 +2227,17 @@
         <v>121</v>
       </c>
       <c r="H11">
-        <v>35.5</v>
-      </c>
-      <c r="I11">
-        <v>2.7</v>
+        <v>12.6</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1.1000000000000001</v>
       </c>
       <c r="J11">
-        <v>61.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>10.6</v>
+      </c>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -2235,16 +2260,17 @@
         <v>122</v>
       </c>
       <c r="H12">
-        <v>21.8</v>
-      </c>
-      <c r="I12">
-        <v>29.1</v>
+        <v>9</v>
+      </c>
+      <c r="I12" s="12">
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>49.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -2267,16 +2293,17 @@
         <v>122</v>
       </c>
       <c r="H13">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I13">
-        <v>47.1</v>
+        <v>3.1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>62.4</v>
       </c>
       <c r="J13">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>30.4</v>
+      </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
@@ -2299,16 +2326,17 @@
         <v>123</v>
       </c>
       <c r="H14">
-        <v>12</v>
-      </c>
-      <c r="I14">
-        <v>73.599999999999994</v>
+        <v>13.2</v>
+      </c>
+      <c r="I14" s="12">
+        <v>57.6</v>
       </c>
       <c r="J14">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6.5</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
@@ -2331,16 +2359,17 @@
         <v>123</v>
       </c>
       <c r="H15">
-        <v>14.3</v>
-      </c>
-      <c r="I15">
-        <v>32.1</v>
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.2</v>
       </c>
       <c r="J15">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
@@ -2363,16 +2392,17 @@
         <v>115</v>
       </c>
       <c r="H16">
-        <v>7.4</v>
-      </c>
-      <c r="I16">
-        <v>51.4</v>
+        <v>2</v>
+      </c>
+      <c r="I16" s="12">
+        <v>14</v>
       </c>
       <c r="J16">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -2395,16 +2425,17 @@
         <v>116</v>
       </c>
       <c r="H17">
-        <v>11.3</v>
-      </c>
-      <c r="I17">
-        <v>38.1</v>
+        <v>10.8</v>
+      </c>
+      <c r="I17" s="12">
+        <v>21.9</v>
       </c>
       <c r="J17">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>18.8</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
@@ -2427,16 +2458,17 @@
         <v>118</v>
       </c>
       <c r="H18">
-        <v>23.2</v>
-      </c>
-      <c r="I18">
-        <v>31.9</v>
+        <v>3.5</v>
+      </c>
+      <c r="I18" s="12">
+        <v>4.8</v>
       </c>
       <c r="J18">
-        <v>44.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -2459,16 +2491,17 @@
         <v>118</v>
       </c>
       <c r="H19">
-        <v>15.6</v>
-      </c>
-      <c r="I19">
-        <v>6.8</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I19" s="12">
+        <v>3.8</v>
       </c>
       <c r="J19">
-        <v>77.599999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -2491,16 +2524,17 @@
         <v>119</v>
       </c>
       <c r="H20">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="I20">
-        <v>65.7</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I20" s="12">
+        <v>2.1</v>
       </c>
       <c r="J20">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>86</v>
       </c>
@@ -2523,16 +2557,17 @@
         <v>119</v>
       </c>
       <c r="H21">
-        <v>14</v>
-      </c>
-      <c r="I21">
-        <v>31.1</v>
+        <v>5</v>
+      </c>
+      <c r="I21" s="12">
+        <v>4.9000000000000004</v>
       </c>
       <c r="J21">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
@@ -2555,16 +2590,17 @@
         <v>120</v>
       </c>
       <c r="H22">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I22">
-        <v>58.3</v>
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0.7</v>
       </c>
       <c r="J22">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -2587,16 +2623,17 @@
         <v>120</v>
       </c>
       <c r="H23">
-        <v>19.2</v>
-      </c>
-      <c r="I23">
-        <v>44.8</v>
+        <v>63.6</v>
+      </c>
+      <c r="I23" s="12">
+        <v>136.1</v>
       </c>
       <c r="J23">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
@@ -2619,28 +2656,29 @@
         <v>121</v>
       </c>
       <c r="H24">
-        <v>24.2</v>
-      </c>
-      <c r="I24">
-        <v>20.9</v>
+        <v>24.3</v>
+      </c>
+      <c r="I24" s="12">
+        <v>20.8</v>
       </c>
       <c r="J24">
-        <v>54.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25.8</v>
+      </c>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G29" s="9"/>
     </row>
   </sheetData>
